--- a/Code/Results/Cases/Case_2_162/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_162/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.2977741061151</v>
+        <v>12.56424632954657</v>
       </c>
       <c r="C2">
-        <v>10.27144393313522</v>
+        <v>8.693692551266818</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>19.12927410508755</v>
+        <v>18.43564304162264</v>
       </c>
       <c r="F2">
-        <v>40.12520618018441</v>
+        <v>45.94816114895949</v>
       </c>
       <c r="G2">
-        <v>2.110129710138865</v>
+        <v>3.691439664340859</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>18.50902439858818</v>
+        <v>26.47732755246626</v>
       </c>
       <c r="J2">
-        <v>5.525464206579534</v>
+        <v>9.217611969698449</v>
       </c>
       <c r="K2">
-        <v>13.21214169028214</v>
+        <v>13.28618600433387</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.59641414608678</v>
+        <v>20.62553880119735</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.292379822077</v>
+        <v>12.3361462690672</v>
       </c>
       <c r="C3">
-        <v>9.62117558740297</v>
+        <v>8.524058822954572</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>17.90482338806293</v>
+        <v>18.18317526234162</v>
       </c>
       <c r="F3">
-        <v>38.36702553561986</v>
+        <v>45.72393092305035</v>
       </c>
       <c r="G3">
-        <v>2.117895107605912</v>
+        <v>3.694167971353137</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>18.47583581104274</v>
+        <v>26.54212489604378</v>
       </c>
       <c r="J3">
-        <v>5.564776750831046</v>
+        <v>9.24246373974313</v>
       </c>
       <c r="K3">
-        <v>12.2946868738987</v>
+        <v>13.13701660721303</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.84227763417119</v>
+        <v>20.69348743264106</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.65146432280792</v>
+        <v>12.19740464054708</v>
       </c>
       <c r="C4">
-        <v>9.208219266665239</v>
+        <v>8.420999557194019</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>17.12240160312572</v>
+        <v>18.03124594427196</v>
       </c>
       <c r="F4">
-        <v>37.28580794736327</v>
+        <v>45.59837716250062</v>
       </c>
       <c r="G4">
-        <v>2.122781489447438</v>
+        <v>3.695929424181401</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>18.4719838511069</v>
+        <v>26.58722995984778</v>
       </c>
       <c r="J4">
-        <v>5.591708345067809</v>
+        <v>9.258878284394713</v>
       </c>
       <c r="K4">
-        <v>11.8209234054975</v>
+        <v>13.04805500529264</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.99661485808585</v>
+        <v>20.73718695628315</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.41277772783329</v>
+        <v>12.14127811622863</v>
       </c>
       <c r="C5">
-        <v>9.036588023172722</v>
+        <v>8.379340802398403</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16.79599771069204</v>
+        <v>17.97018449487464</v>
       </c>
       <c r="F5">
-        <v>36.84528154096306</v>
+        <v>45.55029707374767</v>
       </c>
       <c r="G5">
-        <v>2.124803937442199</v>
+        <v>3.696668998545062</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>18.47436165012576</v>
+        <v>26.60694395221487</v>
       </c>
       <c r="J5">
-        <v>5.603360527271319</v>
+        <v>9.265858009048564</v>
       </c>
       <c r="K5">
-        <v>11.62437599721972</v>
+        <v>13.01250446067726</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>14.06037920528999</v>
+        <v>20.7554935964667</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.37280695940388</v>
+        <v>12.13198561452287</v>
       </c>
       <c r="C6">
-        <v>9.007890036471613</v>
+        <v>8.372445700541107</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16.74134707400113</v>
+        <v>17.96009883639077</v>
       </c>
       <c r="F6">
-        <v>36.77215333914865</v>
+        <v>45.54250061958123</v>
       </c>
       <c r="G6">
-        <v>2.125141688519263</v>
+        <v>3.696793121300999</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>18.47498889686928</v>
+        <v>26.6102978471185</v>
       </c>
       <c r="J6">
-        <v>5.605335575185485</v>
+        <v>9.267034545930269</v>
       </c>
       <c r="K6">
-        <v>11.59153491687179</v>
+        <v>13.00664488821105</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>14.07102044837688</v>
+        <v>20.75856355601467</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.64826800843867</v>
+        <v>12.19664592307438</v>
       </c>
       <c r="C7">
-        <v>9.205917993187487</v>
+        <v>8.420436277796465</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>17.11802999676094</v>
+        <v>18.03041890509877</v>
       </c>
       <c r="F7">
-        <v>37.27986581722313</v>
+        <v>45.59771620737944</v>
       </c>
       <c r="G7">
-        <v>2.122808636696456</v>
+        <v>3.695939310100486</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>18.4720002075521</v>
+        <v>26.58749043693114</v>
       </c>
       <c r="J7">
-        <v>5.591862779724006</v>
+        <v>9.258971238359129</v>
       </c>
       <c r="K7">
-        <v>11.81828654683701</v>
+        <v>13.04757266275455</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.99747125227347</v>
+        <v>20.73743182521583</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.95797308745705</v>
+        <v>12.48537387139891</v>
       </c>
       <c r="C8">
-        <v>10.05011780289903</v>
+        <v>8.635012955184946</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>18.71349832872614</v>
+        <v>18.34799677249703</v>
       </c>
       <c r="F8">
-        <v>39.51961343642559</v>
+        <v>45.86835273299541</v>
       </c>
       <c r="G8">
-        <v>2.11278354071282</v>
+        <v>3.692362527477654</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>18.49402456190754</v>
+        <v>26.49856315643127</v>
       </c>
       <c r="J8">
-        <v>5.538423643778117</v>
+        <v>9.225941113472015</v>
       </c>
       <c r="K8">
-        <v>12.89872370206394</v>
+        <v>13.23423173916297</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.68050028688625</v>
+        <v>20.64855748470955</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.28602565932159</v>
+        <v>13.05842839606041</v>
       </c>
       <c r="C9">
-        <v>11.69824442098291</v>
+        <v>9.061757596461273</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>21.67024283745225</v>
+        <v>18.99191208037906</v>
       </c>
       <c r="F9">
-        <v>43.88055465042913</v>
+        <v>46.49350297544158</v>
       </c>
       <c r="G9">
-        <v>2.093993536993823</v>
+        <v>3.68602939686989</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>18.67786417190064</v>
+        <v>26.36656793476753</v>
       </c>
       <c r="J9">
-        <v>5.457032509803553</v>
+        <v>9.170332167729477</v>
       </c>
       <c r="K9">
-        <v>15.04749368815054</v>
+        <v>13.61926749934121</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>13.08472800323485</v>
+        <v>20.48992247762674</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.84383184439924</v>
+        <v>13.47897443982496</v>
       </c>
       <c r="C10">
-        <v>12.8517019463462</v>
+        <v>9.375337237370482</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>23.77147073945167</v>
+        <v>19.4733655858584</v>
       </c>
       <c r="F10">
-        <v>47.04833916846471</v>
+        <v>47.00769885669116</v>
       </c>
       <c r="G10">
-        <v>2.080611486090836</v>
+        <v>3.681786630126445</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>18.91205210385651</v>
+        <v>26.2956794908289</v>
       </c>
       <c r="J10">
-        <v>5.413394555483419</v>
+        <v>9.135055667853415</v>
       </c>
       <c r="K10">
-        <v>16.4877211372262</v>
+        <v>13.91117634545188</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.66141942141555</v>
+        <v>20.38283584928125</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.52083836022489</v>
+        <v>13.66924673285522</v>
       </c>
       <c r="C11">
-        <v>13.35699714294265</v>
+        <v>9.51728260110373</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>24.68766125041232</v>
+        <v>19.69325388233212</v>
       </c>
       <c r="F11">
-        <v>48.47991339853462</v>
+        <v>47.25288528199575</v>
       </c>
       <c r="G11">
-        <v>2.074589002112601</v>
+        <v>3.679944501647058</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>19.04309036489833</v>
+        <v>26.26914453108809</v>
       </c>
       <c r="J11">
-        <v>5.397525320649222</v>
+        <v>9.120217737591357</v>
       </c>
       <c r="K11">
-        <v>17.1143609390168</v>
+        <v>14.04537929524874</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.47171003588974</v>
+        <v>20.33615789488375</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.77278404005</v>
+        <v>13.7410745728849</v>
       </c>
       <c r="C12">
-        <v>13.54566407621802</v>
+        <v>9.570875780018968</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>25.02910608338953</v>
+        <v>19.7765671211532</v>
       </c>
       <c r="F12">
-        <v>49.02064165979866</v>
+        <v>47.34729165682041</v>
       </c>
       <c r="G12">
-        <v>2.072315349621111</v>
+        <v>3.679259499145707</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>19.09648806146621</v>
+        <v>26.25992158514182</v>
       </c>
       <c r="J12">
-        <v>5.39213311260179</v>
+        <v>9.11477286338156</v>
       </c>
       <c r="K12">
-        <v>17.34768662695718</v>
+        <v>14.09635524928911</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.40026451598584</v>
+        <v>20.3187738375806</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.71871752391485</v>
+        <v>13.72561628915044</v>
       </c>
       <c r="C13">
-        <v>13.5051483509095</v>
+        <v>9.559341457399425</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>24.95581072677228</v>
+        <v>19.7586233050833</v>
       </c>
       <c r="F13">
-        <v>48.90424660258312</v>
+        <v>47.32689121083746</v>
       </c>
       <c r="G13">
-        <v>2.07280475447297</v>
+        <v>3.679406468713183</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>19.08481585113309</v>
+        <v>26.26187114919889</v>
       </c>
       <c r="J13">
-        <v>5.393266216188579</v>
+        <v>9.115937778907396</v>
       </c>
       <c r="K13">
-        <v>17.29761005812856</v>
+        <v>14.08537045886048</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.4156343388892</v>
+        <v>20.32250483913673</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.54165392723211</v>
+        <v>13.67516096224707</v>
       </c>
       <c r="C14">
-        <v>13.37257182810447</v>
+        <v>9.52169523725644</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>24.71586100724574</v>
+        <v>19.70010763122038</v>
       </c>
       <c r="F14">
-        <v>48.52442678175506</v>
+        <v>47.26062126056502</v>
       </c>
       <c r="G14">
-        <v>2.074401823246113</v>
+        <v>3.679887894538763</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>19.04740626699762</v>
+        <v>26.26836919313683</v>
       </c>
       <c r="J14">
-        <v>5.397069060979026</v>
+        <v>9.119766298716742</v>
       </c>
       <c r="K14">
-        <v>17.13363553077353</v>
+        <v>14.04957025366421</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.46582437636912</v>
+        <v>20.33472185384001</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.43262550689717</v>
+        <v>13.64422425859104</v>
       </c>
       <c r="C15">
-        <v>13.29101989050699</v>
+        <v>9.498613556294695</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>24.56817562606178</v>
+        <v>19.66426880489048</v>
       </c>
       <c r="F15">
-        <v>48.29159799698818</v>
+        <v>47.22023021601998</v>
       </c>
       <c r="G15">
-        <v>2.075380900317842</v>
+        <v>3.680184416809273</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>19.02499123883024</v>
+        <v>26.27245701623109</v>
       </c>
       <c r="J15">
-        <v>5.39948018058818</v>
+        <v>9.122134028300676</v>
       </c>
       <c r="K15">
-        <v>17.0326836277225</v>
+        <v>14.02766055477623</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.4966179787616</v>
+        <v>20.34224311062124</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.79896180958928</v>
+        <v>13.46651234184087</v>
       </c>
       <c r="C16">
-        <v>12.81829843220245</v>
+        <v>9.366041653181675</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>23.71081451328716</v>
+        <v>19.45900611943344</v>
       </c>
       <c r="F16">
-        <v>46.95458819397377</v>
+        <v>46.99189703549657</v>
       </c>
       <c r="G16">
-        <v>2.081006177354189</v>
+        <v>3.681908780690902</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>18.90400296441234</v>
+        <v>26.29752889450831</v>
       </c>
       <c r="J16">
-        <v>5.414515478441773</v>
+        <v>9.136049700061488</v>
       </c>
       <c r="K16">
-        <v>16.446205829951</v>
+        <v>13.90243026794538</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.67387329528999</v>
+        <v>20.38592725747855</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.40221219416741</v>
+        <v>13.35717185231178</v>
       </c>
       <c r="C17">
-        <v>12.52340240042876</v>
+        <v>9.28449120754984</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>23.17483153222518</v>
+        <v>19.33325073198023</v>
       </c>
       <c r="F17">
-        <v>46.13190741082016</v>
+        <v>46.85466712916562</v>
       </c>
       <c r="G17">
-        <v>2.084472121424624</v>
+        <v>3.682989090842589</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>18.83623423757865</v>
+        <v>26.31437557915756</v>
       </c>
       <c r="J17">
-        <v>5.424789299989172</v>
+        <v>9.14489630022976</v>
       </c>
       <c r="K17">
-        <v>16.07920542943453</v>
+        <v>13.82593376520746</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.78333194187447</v>
+        <v>20.41324693048482</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.17102515937038</v>
+        <v>13.29418884084202</v>
       </c>
       <c r="C18">
-        <v>12.35195041665874</v>
+        <v>9.237522572177264</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>22.86280070682347</v>
+        <v>19.26100633885014</v>
       </c>
       <c r="F18">
-        <v>45.65782680339672</v>
+        <v>46.77680140565371</v>
       </c>
       <c r="G18">
-        <v>2.086471925512608</v>
+        <v>3.683618737103643</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>18.79954646166389</v>
+        <v>26.3246028238972</v>
       </c>
       <c r="J18">
-        <v>5.431070402423957</v>
+        <v>9.150098476607575</v>
       </c>
       <c r="K18">
-        <v>15.86542284626762</v>
+        <v>13.78207070496367</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.84655936367964</v>
+        <v>20.42915220410735</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.09223241163231</v>
+        <v>13.27285020675971</v>
       </c>
       <c r="C19">
-        <v>12.29358121309199</v>
+        <v>9.221610776004679</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>22.75650283389974</v>
+        <v>19.23656297491127</v>
       </c>
       <c r="F19">
-        <v>45.49715946528224</v>
+        <v>46.7506222060923</v>
       </c>
       <c r="G19">
-        <v>2.087150174147161</v>
+        <v>3.683833348892028</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>18.78751052002077</v>
+        <v>26.32815778599458</v>
       </c>
       <c r="J19">
-        <v>5.433259660372283</v>
+        <v>9.151879397424775</v>
       </c>
       <c r="K19">
-        <v>15.79257322618056</v>
+        <v>13.76724416836627</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.8680139770355</v>
+        <v>20.43457041379678</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.44475512904318</v>
+        <v>13.36882154117985</v>
       </c>
       <c r="C20">
-        <v>12.55498378045166</v>
+        <v>9.293179333691223</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>23.23227426798461</v>
+        <v>19.34662920566807</v>
       </c>
       <c r="F20">
-        <v>46.21957639970235</v>
+        <v>46.8691656714379</v>
       </c>
       <c r="G20">
-        <v>2.084102532100275</v>
+        <v>3.682873233512783</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>18.84320941894599</v>
+        <v>26.31252656557149</v>
       </c>
       <c r="J20">
-        <v>5.423656838427793</v>
+        <v>9.143942781932568</v>
       </c>
       <c r="K20">
-        <v>16.11855110436121</v>
+        <v>13.83406324435973</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.77165210342143</v>
+        <v>20.41031886918781</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.59378072520293</v>
+        <v>13.68998757897338</v>
       </c>
       <c r="C21">
-        <v>13.41158443391182</v>
+        <v>9.532757586667588</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>24.78648745799162</v>
+        <v>19.71729446774796</v>
       </c>
       <c r="F21">
-        <v>48.6360260871017</v>
+        <v>47.28004453352717</v>
       </c>
       <c r="G21">
-        <v>2.073932557924435</v>
+        <v>3.679746147488886</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>19.05828982750804</v>
+        <v>26.26643813330126</v>
       </c>
       <c r="J21">
-        <v>5.395934947074316</v>
+        <v>9.118637049259652</v>
       </c>
       <c r="K21">
-        <v>17.18190543159523</v>
+        <v>14.06008177327869</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.45107179509957</v>
+        <v>20.33112550660833</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.31902895251596</v>
+        <v>13.89854940854388</v>
       </c>
       <c r="C22">
-        <v>13.9558817052863</v>
+        <v>9.688387832403347</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>25.7703313572953</v>
+        <v>19.95978029651085</v>
       </c>
       <c r="F22">
-        <v>50.20735044567037</v>
+        <v>47.55763725731681</v>
       </c>
       <c r="G22">
-        <v>2.067324977156427</v>
+        <v>3.67777565949907</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>19.22099197685022</v>
+        <v>26.24112858165141</v>
       </c>
       <c r="J22">
-        <v>5.381438206860328</v>
+        <v>9.103112079856905</v>
       </c>
       <c r="K22">
-        <v>17.85380355710329</v>
+        <v>14.20868712218546</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.24384082509216</v>
+        <v>20.28106888984945</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.93425681617277</v>
+        <v>13.7873824042152</v>
       </c>
       <c r="C23">
-        <v>13.66675974873428</v>
+        <v>9.605429926913263</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>25.24808135831555</v>
+        <v>19.83036522239995</v>
       </c>
       <c r="F23">
-        <v>49.36941257440636</v>
+        <v>47.40867309705101</v>
       </c>
       <c r="G23">
-        <v>2.070848861256881</v>
+        <v>3.678820668018366</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>19.13204386316451</v>
+        <v>26.25419527396868</v>
       </c>
       <c r="J23">
-        <v>5.388828130780997</v>
+        <v>9.111305284794565</v>
       </c>
       <c r="K23">
-        <v>17.49726240710205</v>
+        <v>14.12930763288988</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.35423956045476</v>
+        <v>20.30762972972952</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.42553110367765</v>
+        <v>13.36355509012418</v>
       </c>
       <c r="C24">
-        <v>12.54071180350627</v>
+        <v>9.289251689705004</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>23.20631652989116</v>
+        <v>19.34058062331105</v>
       </c>
       <c r="F24">
-        <v>46.1799447061263</v>
+        <v>46.86260766853218</v>
       </c>
       <c r="G24">
-        <v>2.084269600868671</v>
+        <v>3.682925585935767</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>18.84004887743746</v>
+        <v>26.31336081689748</v>
       </c>
       <c r="J24">
-        <v>5.424167660985971</v>
+        <v>9.144373505756173</v>
       </c>
       <c r="K24">
-        <v>16.10077162225689</v>
+        <v>13.83038754250644</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.77693162824343</v>
+        <v>20.41164202619847</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.68348912862704</v>
+        <v>12.90315667981841</v>
       </c>
       <c r="C25">
-        <v>11.2555770662424</v>
+        <v>8.946050405476502</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>20.86001646864149</v>
+        <v>18.81591911387293</v>
       </c>
       <c r="F25">
-        <v>42.70626727405607</v>
+        <v>46.31453233828372</v>
       </c>
       <c r="G25">
-        <v>2.098994147589497</v>
+        <v>3.687670289297589</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>18.61171033820785</v>
+        <v>26.39771181029196</v>
       </c>
       <c r="J25">
-        <v>5.476361292373694</v>
+        <v>9.184395607917351</v>
       </c>
       <c r="K25">
-        <v>14.4909946647807</v>
+        <v>13.51333306587298</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.24327719902002</v>
+        <v>20.53117027865397</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_162/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_162/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.56424632954657</v>
+        <v>14.29777410611511</v>
       </c>
       <c r="C2">
-        <v>8.693692551266818</v>
+        <v>10.2714439331352</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>18.43564304162264</v>
+        <v>19.12927410508753</v>
       </c>
       <c r="F2">
-        <v>45.94816114895949</v>
+        <v>40.12520618018448</v>
       </c>
       <c r="G2">
-        <v>3.691439664340859</v>
+        <v>2.110129710138733</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>26.47732755246626</v>
+        <v>18.50902439858821</v>
       </c>
       <c r="J2">
-        <v>9.217611969698449</v>
+        <v>5.525464206579541</v>
       </c>
       <c r="K2">
-        <v>13.28618600433387</v>
+        <v>13.21214169028216</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>20.62553880119735</v>
+        <v>13.59641414608675</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.3361462690672</v>
+        <v>13.29237982207696</v>
       </c>
       <c r="C3">
-        <v>8.524058822954572</v>
+        <v>9.621175587402947</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>18.18317526234162</v>
+        <v>17.90482338806288</v>
       </c>
       <c r="F3">
-        <v>45.72393092305035</v>
+        <v>38.3670255356199</v>
       </c>
       <c r="G3">
-        <v>3.694167971353137</v>
+        <v>2.117895107606315</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>26.54212489604378</v>
+        <v>18.4758358110429</v>
       </c>
       <c r="J3">
-        <v>9.24246373974313</v>
+        <v>5.564776750831004</v>
       </c>
       <c r="K3">
-        <v>13.13701660721303</v>
+        <v>12.29468687389871</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>20.69348743264106</v>
+        <v>13.8422776341712</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.19740464054708</v>
+        <v>12.65146432280793</v>
       </c>
       <c r="C4">
-        <v>8.420999557194019</v>
+        <v>9.208219266665219</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>18.03124594427196</v>
+        <v>17.12240160312567</v>
       </c>
       <c r="F4">
-        <v>45.59837716250062</v>
+        <v>37.28580794736322</v>
       </c>
       <c r="G4">
-        <v>3.695929424181401</v>
+        <v>2.122781489447839</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>26.58722995984778</v>
+        <v>18.47198385110687</v>
       </c>
       <c r="J4">
-        <v>9.258878284394713</v>
+        <v>5.59170834506781</v>
       </c>
       <c r="K4">
-        <v>13.04805500529264</v>
+        <v>11.8209234054975</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>20.73718695628315</v>
+        <v>13.99661485808576</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.14127811622863</v>
+        <v>12.4127777278333</v>
       </c>
       <c r="C5">
-        <v>8.379340802398403</v>
+        <v>9.036588023172687</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17.97018449487464</v>
+        <v>16.79599771069204</v>
       </c>
       <c r="F5">
-        <v>45.55029707374767</v>
+        <v>36.84528154096303</v>
       </c>
       <c r="G5">
-        <v>3.696668998545062</v>
+        <v>2.1248039374422</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>26.60694395221487</v>
+        <v>18.47436165012557</v>
       </c>
       <c r="J5">
-        <v>9.265858009048564</v>
+        <v>5.603360527271295</v>
       </c>
       <c r="K5">
-        <v>13.01250446067726</v>
+        <v>11.62437599721969</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>20.7554935964667</v>
+        <v>14.06037920528992</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.13198561452287</v>
+        <v>12.37280695940387</v>
       </c>
       <c r="C6">
-        <v>8.372445700541107</v>
+        <v>9.007890036471597</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17.96009883639077</v>
+        <v>16.74134707400103</v>
       </c>
       <c r="F6">
-        <v>45.54250061958123</v>
+        <v>36.77215333914855</v>
       </c>
       <c r="G6">
-        <v>3.696793121300999</v>
+        <v>2.125141688519129</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>26.6102978471185</v>
+        <v>18.47498889686923</v>
       </c>
       <c r="J6">
-        <v>9.267034545930269</v>
+        <v>5.605335575185373</v>
       </c>
       <c r="K6">
-        <v>13.00664488821105</v>
+        <v>11.59153491687181</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>20.75856355601467</v>
+        <v>14.07102044837682</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.19664592307438</v>
+        <v>12.64826800843868</v>
       </c>
       <c r="C7">
-        <v>8.420436277796465</v>
+        <v>9.205917993187462</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>18.03041890509877</v>
+        <v>17.11802999676089</v>
       </c>
       <c r="F7">
-        <v>45.59771620737944</v>
+        <v>37.27986581722323</v>
       </c>
       <c r="G7">
-        <v>3.695939310100486</v>
+        <v>2.122808636696054</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>26.58749043693114</v>
+        <v>18.47200020755212</v>
       </c>
       <c r="J7">
-        <v>9.258971238359129</v>
+        <v>5.591862779723983</v>
       </c>
       <c r="K7">
-        <v>13.04757266275455</v>
+        <v>11.81828654683703</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>20.73743182521583</v>
+        <v>13.99747125227344</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.48537387139891</v>
+        <v>13.95797308745712</v>
       </c>
       <c r="C8">
-        <v>8.635012955184946</v>
+        <v>10.05011780289905</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>18.34799677249703</v>
+        <v>18.71349832872614</v>
       </c>
       <c r="F8">
-        <v>45.86835273299541</v>
+        <v>39.51961343642556</v>
       </c>
       <c r="G8">
-        <v>3.692362527477654</v>
+        <v>2.112783540712552</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>26.49856315643127</v>
+        <v>18.49402456190732</v>
       </c>
       <c r="J8">
-        <v>9.225941113472015</v>
+        <v>5.538423643778083</v>
       </c>
       <c r="K8">
-        <v>13.23423173916297</v>
+        <v>12.89872370206401</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>20.64855748470955</v>
+        <v>13.68050028688616</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.05842839606041</v>
+        <v>16.28602565932166</v>
       </c>
       <c r="C9">
-        <v>9.061757596461273</v>
+        <v>11.69824442098286</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>18.99191208037906</v>
+        <v>21.6702428374522</v>
       </c>
       <c r="F9">
-        <v>46.49350297544158</v>
+        <v>43.88055465042911</v>
       </c>
       <c r="G9">
-        <v>3.68602939686989</v>
+        <v>2.093993536993957</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>26.36656793476753</v>
+        <v>18.67786417190048</v>
       </c>
       <c r="J9">
-        <v>9.170332167729477</v>
+        <v>5.457032509803446</v>
       </c>
       <c r="K9">
-        <v>13.61926749934121</v>
+        <v>15.04749368815057</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>20.48992247762674</v>
+        <v>13.08472800323472</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.47897443982496</v>
+        <v>17.84383184439927</v>
       </c>
       <c r="C10">
-        <v>9.375337237370482</v>
+        <v>12.85170194634608</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>19.4733655858584</v>
+        <v>23.7714707394516</v>
       </c>
       <c r="F10">
-        <v>47.00769885669116</v>
+        <v>47.04833916846475</v>
       </c>
       <c r="G10">
-        <v>3.681786630126445</v>
+        <v>2.080611486090838</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>26.2956794908289</v>
+        <v>18.91205210385657</v>
       </c>
       <c r="J10">
-        <v>9.135055667853415</v>
+        <v>5.41339455548349</v>
       </c>
       <c r="K10">
-        <v>13.91117634545188</v>
+        <v>16.48772113722617</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>20.38283584928125</v>
+        <v>12.66141942141556</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.66924673285522</v>
+        <v>18.52083836022491</v>
       </c>
       <c r="C11">
-        <v>9.51728260110373</v>
+        <v>13.35699714294261</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>19.69325388233212</v>
+        <v>24.6876612504123</v>
       </c>
       <c r="F11">
-        <v>47.25288528199575</v>
+        <v>48.47991339853462</v>
       </c>
       <c r="G11">
-        <v>3.679944501647058</v>
+        <v>2.074589002112601</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>26.26914453108809</v>
+        <v>19.04309036489838</v>
       </c>
       <c r="J11">
-        <v>9.120217737591357</v>
+        <v>5.397525320649279</v>
       </c>
       <c r="K11">
-        <v>14.04537929524874</v>
+        <v>17.11436093901676</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>20.33615789488375</v>
+        <v>12.47171003588977</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.7410745728849</v>
+        <v>18.77278404004994</v>
       </c>
       <c r="C12">
-        <v>9.570875780018968</v>
+        <v>13.54566407621806</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>19.7765671211532</v>
+        <v>25.02910608338957</v>
       </c>
       <c r="F12">
-        <v>47.34729165682041</v>
+        <v>49.02064165979868</v>
       </c>
       <c r="G12">
-        <v>3.679259499145707</v>
+        <v>2.072315349621244</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>26.25992158514182</v>
+        <v>19.09648806146625</v>
       </c>
       <c r="J12">
-        <v>9.11477286338156</v>
+        <v>5.392133112601788</v>
       </c>
       <c r="K12">
-        <v>14.09635524928911</v>
+        <v>17.34768662695716</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>20.3187738375806</v>
+        <v>12.40026451598581</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.72561628915044</v>
+        <v>18.71871752391485</v>
       </c>
       <c r="C13">
-        <v>9.559341457399425</v>
+        <v>13.50514835090938</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>19.7586233050833</v>
+        <v>24.95581072677237</v>
       </c>
       <c r="F13">
-        <v>47.32689121083746</v>
+        <v>48.90424660258312</v>
       </c>
       <c r="G13">
-        <v>3.679406468713183</v>
+        <v>2.07280475447297</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>26.26187114919889</v>
+        <v>19.08481585113307</v>
       </c>
       <c r="J13">
-        <v>9.115937778907396</v>
+        <v>5.393266216188522</v>
       </c>
       <c r="K13">
-        <v>14.08537045886048</v>
+        <v>17.29761005812853</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>20.32250483913673</v>
+        <v>12.41563433888926</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.67516096224707</v>
+        <v>18.54165392723205</v>
       </c>
       <c r="C14">
-        <v>9.52169523725644</v>
+        <v>13.3725718281044</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>19.70010763122038</v>
+        <v>24.71586100724589</v>
       </c>
       <c r="F14">
-        <v>47.26062126056502</v>
+        <v>48.52442678175506</v>
       </c>
       <c r="G14">
-        <v>3.679887894538763</v>
+        <v>2.074401823246248</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>26.26836919313683</v>
+        <v>19.04740626699787</v>
       </c>
       <c r="J14">
-        <v>9.119766298716742</v>
+        <v>5.397069060979001</v>
       </c>
       <c r="K14">
-        <v>14.04957025366421</v>
+        <v>17.13363553077346</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>20.33472185384001</v>
+        <v>12.46582437636932</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.64422425859104</v>
+        <v>18.43262550689721</v>
       </c>
       <c r="C15">
-        <v>9.498613556294695</v>
+        <v>13.29101989050697</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>19.66426880489048</v>
+        <v>24.56817562606173</v>
       </c>
       <c r="F15">
-        <v>47.22023021601998</v>
+        <v>48.29159799698824</v>
       </c>
       <c r="G15">
-        <v>3.680184416809273</v>
+        <v>2.075380900317975</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>26.27245701623109</v>
+        <v>19.02499123883038</v>
       </c>
       <c r="J15">
-        <v>9.122134028300676</v>
+        <v>5.399480180588167</v>
       </c>
       <c r="K15">
-        <v>14.02766055477623</v>
+        <v>17.03268362772254</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>20.34224311062124</v>
+        <v>12.49661797876168</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.46651234184087</v>
+        <v>17.79896180958925</v>
       </c>
       <c r="C16">
-        <v>9.366041653181675</v>
+        <v>12.81829843220245</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>19.45900611943344</v>
+        <v>23.71081451328703</v>
       </c>
       <c r="F16">
-        <v>46.99189703549657</v>
+        <v>46.95458819397377</v>
       </c>
       <c r="G16">
-        <v>3.681908780690902</v>
+        <v>2.081006177354457</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>26.29752889450831</v>
+        <v>18.90400296441243</v>
       </c>
       <c r="J16">
-        <v>9.136049700061488</v>
+        <v>5.414515478441832</v>
       </c>
       <c r="K16">
-        <v>13.90243026794538</v>
+        <v>16.44620582995098</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>20.38592725747855</v>
+        <v>12.67387329529008</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.35717185231178</v>
+        <v>17.40221219416749</v>
       </c>
       <c r="C17">
-        <v>9.28449120754984</v>
+        <v>12.52340240042885</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>19.33325073198023</v>
+        <v>23.17483153222506</v>
       </c>
       <c r="F17">
-        <v>46.85466712916562</v>
+        <v>46.1319074108202</v>
       </c>
       <c r="G17">
-        <v>3.682989090842589</v>
+        <v>2.084472121424358</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>26.31437557915756</v>
+        <v>18.83623423757862</v>
       </c>
       <c r="J17">
-        <v>9.14489630022976</v>
+        <v>5.424789299989233</v>
       </c>
       <c r="K17">
-        <v>13.82593376520746</v>
+        <v>16.07920542943461</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>20.41324693048482</v>
+        <v>12.78333194187438</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.29418884084202</v>
+        <v>17.17102515937033</v>
       </c>
       <c r="C18">
-        <v>9.237522572177264</v>
+        <v>12.35195041665875</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>19.26100633885014</v>
+        <v>22.86280070682346</v>
       </c>
       <c r="F18">
-        <v>46.77680140565371</v>
+        <v>45.65782680339672</v>
       </c>
       <c r="G18">
-        <v>3.683618737103643</v>
+        <v>2.086471925512873</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>26.3246028238972</v>
+        <v>18.799546461664</v>
       </c>
       <c r="J18">
-        <v>9.150098476607575</v>
+        <v>5.431070402423954</v>
       </c>
       <c r="K18">
-        <v>13.78207070496367</v>
+        <v>15.86542284626759</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>20.42915220410735</v>
+        <v>12.84655936367968</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.27285020675971</v>
+        <v>17.09223241163236</v>
       </c>
       <c r="C19">
-        <v>9.221610776004679</v>
+        <v>12.29358121309204</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>19.23656297491127</v>
+        <v>22.75650283389968</v>
       </c>
       <c r="F19">
-        <v>46.7506222060923</v>
+        <v>45.49715946528224</v>
       </c>
       <c r="G19">
-        <v>3.683833348892028</v>
+        <v>2.087150174147159</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>26.32815778599458</v>
+        <v>18.7875105200207</v>
       </c>
       <c r="J19">
-        <v>9.151879397424775</v>
+        <v>5.433259660372315</v>
       </c>
       <c r="K19">
-        <v>13.76724416836627</v>
+        <v>15.7925732261806</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>20.43457041379678</v>
+        <v>12.86801397703544</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.36882154117985</v>
+        <v>17.44475512904319</v>
       </c>
       <c r="C20">
-        <v>9.293179333691223</v>
+        <v>12.55498378045165</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>19.34662920566807</v>
+        <v>23.23227426798451</v>
       </c>
       <c r="F20">
-        <v>46.8691656714379</v>
+        <v>46.21957639970238</v>
       </c>
       <c r="G20">
-        <v>3.682873233512783</v>
+        <v>2.084102532100408</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>26.31252656557149</v>
+        <v>18.84320941894599</v>
       </c>
       <c r="J20">
-        <v>9.143942781932568</v>
+        <v>5.423656838427775</v>
       </c>
       <c r="K20">
-        <v>13.83406324435973</v>
+        <v>16.11855110436122</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>20.41031886918781</v>
+        <v>12.77165210342137</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.68998757897338</v>
+        <v>18.59378072520289</v>
       </c>
       <c r="C21">
-        <v>9.532757586667588</v>
+        <v>13.41158443391183</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>19.71729446774796</v>
+        <v>24.78648745799159</v>
       </c>
       <c r="F21">
-        <v>47.28004453352717</v>
+        <v>48.6360260871017</v>
       </c>
       <c r="G21">
-        <v>3.679746147488886</v>
+        <v>2.0739325579247</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>26.26643813330126</v>
+        <v>19.05828982750809</v>
       </c>
       <c r="J21">
-        <v>9.118637049259652</v>
+        <v>5.39593494707434</v>
       </c>
       <c r="K21">
-        <v>14.06008177327869</v>
+        <v>17.18190543159523</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>20.33112550660833</v>
+        <v>12.45107179509967</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.89854940854388</v>
+        <v>19.31902895251597</v>
       </c>
       <c r="C22">
-        <v>9.688387832403347</v>
+        <v>13.95588170528646</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>19.95978029651085</v>
+        <v>25.77033135729512</v>
       </c>
       <c r="F22">
-        <v>47.55763725731681</v>
+        <v>50.20735044567036</v>
       </c>
       <c r="G22">
-        <v>3.67777565949907</v>
+        <v>2.06732497715669</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>26.24112858165141</v>
+        <v>19.22099197685022</v>
       </c>
       <c r="J22">
-        <v>9.103112079856905</v>
+        <v>5.381438206860286</v>
       </c>
       <c r="K22">
-        <v>14.20868712218546</v>
+        <v>17.85380355710338</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>20.28106888984945</v>
+        <v>12.24384082509214</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.7873824042152</v>
+        <v>18.93425681617275</v>
       </c>
       <c r="C23">
-        <v>9.605429926913263</v>
+        <v>13.66675974873431</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>19.83036522239995</v>
+        <v>25.24808135831555</v>
       </c>
       <c r="F23">
-        <v>47.40867309705101</v>
+        <v>49.36941257440643</v>
       </c>
       <c r="G23">
-        <v>3.678820668018366</v>
+        <v>2.070848861256617</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>26.25419527396868</v>
+        <v>19.13204386316454</v>
       </c>
       <c r="J23">
-        <v>9.111305284794565</v>
+        <v>5.388828130780954</v>
       </c>
       <c r="K23">
-        <v>14.12930763288988</v>
+        <v>17.49726240710207</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>20.30762972972952</v>
+        <v>12.35423956045471</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.36355509012418</v>
+        <v>17.42553110367766</v>
       </c>
       <c r="C24">
-        <v>9.289251689705004</v>
+        <v>12.54071180350627</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>19.34058062331105</v>
+        <v>23.20631652989116</v>
       </c>
       <c r="F24">
-        <v>46.86260766853218</v>
+        <v>46.1799447061263</v>
       </c>
       <c r="G24">
-        <v>3.682925585935767</v>
+        <v>2.084269600868805</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>26.31336081689748</v>
+        <v>18.84004887743751</v>
       </c>
       <c r="J24">
-        <v>9.144373505756173</v>
+        <v>5.424167660986035</v>
       </c>
       <c r="K24">
-        <v>13.83038754250644</v>
+        <v>16.10077162225689</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>20.41164202619847</v>
+        <v>12.77693162824347</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.90315667981841</v>
+        <v>15.683489128627</v>
       </c>
       <c r="C25">
-        <v>8.946050405476502</v>
+        <v>11.25557706624239</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>18.81591911387293</v>
+        <v>20.8600164686414</v>
       </c>
       <c r="F25">
-        <v>46.31453233828372</v>
+        <v>42.70626727405617</v>
       </c>
       <c r="G25">
-        <v>3.687670289297589</v>
+        <v>2.098994147589362</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>26.39771181029196</v>
+        <v>18.61171033820796</v>
       </c>
       <c r="J25">
-        <v>9.184395607917351</v>
+        <v>5.4763612923737</v>
       </c>
       <c r="K25">
-        <v>13.51333306587298</v>
+        <v>14.49099466478065</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>20.53117027865397</v>
+        <v>13.24327719902005</v>
       </c>
       <c r="O25">
         <v>0</v>
